--- a/lib/uploads/2017_1_A_CSA-1.xlsx
+++ b/lib/uploads/2017_1_A_CSA-1.xlsx
@@ -24,9 +24,6 @@
     <t>CLASS 1 (2017)</t>
   </si>
   <si>
-    <t>Scholar  Number</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Sharma</t>
+  </si>
+  <si>
+    <t>Roll No</t>
   </si>
 </sst>
 </file>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,7 +617,7 @@
     </row>
     <row r="3" spans="1:14" ht="21">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -636,42 +636,42 @@
     <row r="5" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:14" ht="55.5" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>8</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>

--- a/lib/uploads/2017_1_A_CSA-1.xlsx
+++ b/lib/uploads/2017_1_A_CSA-1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="180" windowWidth="14805" windowHeight="7935"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -24,6 +24,9 @@
     <t>CLASS 1 (2017)</t>
   </si>
   <si>
+    <t>Scholar  Number</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -54,26 +57,44 @@
     <t>CO-SCHOLASTIC AREAS</t>
   </si>
   <si>
-    <t>Deb</t>
-  </si>
-  <si>
-    <t>Gupta</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Roll No</t>
+    <t>Shreyansh Deb</t>
+  </si>
+  <si>
+    <t>Prateek Gupta</t>
+  </si>
+  <si>
+    <t>Shubham Sharma</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>B+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +293,52 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="78" dropStyle="combo" dx="16" fmlaLink="#REF!" fmlaRange="#REF!" noThreeD="1" sel="0" val="0"/>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>647700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -347,6 +414,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,6 +449,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -579,7 +648,7 @@
     <col min="16" max="16" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -597,7 +666,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="21">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -615,9 +684,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="21">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -633,136 +702,136 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:14" ht="55.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>8</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>8</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -774,7 +843,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -786,7 +855,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -798,7 +867,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -810,7 +879,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -822,7 +891,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -834,7 +903,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -846,7 +915,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -858,7 +927,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -870,7 +939,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -882,7 +951,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -894,7 +963,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -906,7 +975,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -918,7 +987,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -930,7 +999,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -942,7 +1011,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -954,7 +1023,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -966,7 +1035,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -978,7 +1047,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -990,7 +1059,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1002,7 +1071,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1014,7 +1083,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1026,7 +1095,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1038,7 +1107,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1050,7 +1119,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1062,7 +1131,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1074,7 +1143,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1086,7 +1155,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1098,7 +1167,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1110,7 +1179,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1122,7 +1191,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1134,7 +1203,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1146,7 +1215,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1158,7 +1227,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1170,7 +1239,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1182,7 +1251,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1194,7 +1263,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1206,7 +1275,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1218,7 +1287,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1230,7 +1299,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1242,7 +1311,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1254,7 +1323,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1266,7 +1335,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1278,7 +1347,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1290,7 +1359,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1302,7 +1371,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1314,7 +1383,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1344,29 +1413,58 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>647700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
